--- a/conversation/Present-continuous.xlsx
+++ b/conversation/Present-continuous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B83A458-EC75-420C-BEF5-044BD89B4083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474E26B2-A326-42A2-AC8B-DA599F2FC413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{811D0C47-EBCE-48C4-A464-1894320E90F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -817,6 +817,9 @@
       </rPr>
       <t xml:space="preserve"> going viral on Twitter.</t>
     </r>
+  </si>
+  <si>
+    <t>Seq.</t>
   </si>
 </sst>
 </file>
@@ -883,10 +886,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,9 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FAAA8A-4D92-493C-9D4A-0F1F7F2561F9}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="33" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1224,6 +1221,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="47" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f t="shared" ref="A47:A77" si="26">A46</f>
+        <f t="shared" ref="A47:A48" si="26">A46</f>
         <v>15</v>
       </c>
       <c r="B47" s="1">

--- a/conversation/Present-continuous.xlsx
+++ b/conversation/Present-continuous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474E26B2-A326-42A2-AC8B-DA599F2FC413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D1040-375E-4A6A-819C-7267AA91A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{811D0C47-EBCE-48C4-A464-1894320E90F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{811D0C47-EBCE-48C4-A464-1894320E90F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +99,6 @@
     <t>We should start a meme page together.</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>trying</t>
   </si>
   <si>
@@ -114,7 +109,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -139,9 +134,6 @@
     <t>are</t>
   </si>
   <si>
-    <t>was</t>
-  </si>
-  <si>
     <t>am</t>
   </si>
   <si>
@@ -152,7 +144,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,7 +154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -171,9 +163,6 @@
     </r>
   </si>
   <si>
-    <t>cooked</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
@@ -184,7 +173,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -203,9 +192,6 @@
     </r>
   </si>
   <si>
-    <t>tries</t>
-  </si>
-  <si>
     <t>I'm tries to learn how to play the guitar, but my fingers keep hurting.</t>
   </si>
   <si>
@@ -219,7 +205,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -238,9 +224,6 @@
     </r>
   </si>
   <si>
-    <t>held</t>
-  </si>
-  <si>
     <t>is</t>
   </si>
   <si>
@@ -251,7 +234,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,7 +244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -270,9 +253,6 @@
     </r>
   </si>
   <si>
-    <t>ate</t>
-  </si>
-  <si>
     <t>eating</t>
   </si>
   <si>
@@ -283,7 +263,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -309,7 +289,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,7 +299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -331,9 +311,6 @@
     <t>planning</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>getting</t>
   </si>
   <si>
@@ -344,7 +321,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -354,7 +331,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -363,9 +340,6 @@
     </r>
   </si>
   <si>
-    <t>were</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">No way! We can't give up yet! We </t>
     </r>
@@ -373,7 +347,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,7 +357,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -392,9 +366,6 @@
     </r>
   </si>
   <si>
-    <t>planned</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">I'm </t>
     </r>
@@ -402,7 +373,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -412,7 +383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -421,9 +392,6 @@
     </r>
   </si>
   <si>
-    <t>gone</t>
-  </si>
-  <si>
     <t>going</t>
   </si>
   <si>
@@ -437,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,7 +415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -463,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -482,9 +450,6 @@
     </r>
   </si>
   <si>
-    <t>dates</t>
-  </si>
-  <si>
     <t>did</t>
   </si>
   <si>
@@ -495,7 +460,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -505,7 +470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -514,9 +479,6 @@
     </r>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <r>
       <t>That's so random! How</t>
     </r>
@@ -524,7 +486,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +496,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -543,9 +505,6 @@
     </r>
   </si>
   <si>
-    <t>pretended</t>
-  </si>
-  <si>
     <t>pretending</t>
   </si>
   <si>
@@ -556,7 +515,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,7 +525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -594,7 +553,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -604,7 +563,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -626,7 +585,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -636,7 +595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -652,7 +611,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -671,9 +630,6 @@
     </r>
   </si>
   <si>
-    <t>knew</t>
-  </si>
-  <si>
     <t>know</t>
   </si>
   <si>
@@ -684,7 +640,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -694,7 +650,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -703,9 +659,6 @@
     </r>
   </si>
   <si>
-    <t>watched</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
@@ -716,7 +669,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -726,7 +679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -745,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +708,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -764,9 +717,6 @@
     </r>
   </si>
   <si>
-    <t>browsed</t>
-  </si>
-  <si>
     <r>
       <t>I'm</t>
     </r>
@@ -774,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -784,7 +734,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -800,7 +750,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -810,7 +760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -830,7 +780,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -838,7 +788,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -873,7 +823,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1207,9 +1157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FAAA8A-4D92-493C-9D4A-0F1F7F2561F9}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
@@ -1217,12 +1169,12 @@
     <col min="5" max="5" width="10.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1234,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1243,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A4" si="0">A2</f>
         <v>1</v>
@@ -1264,14 +1216,14 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
+      <c r="D3" s="1">
+        <v>-1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1283,14 +1235,14 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
+      <c r="D4" s="1">
+        <v>-1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1299,16 +1251,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A7" si="3">A5</f>
         <v>2</v>
@@ -1318,16 +1270,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1339,14 +1291,14 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
+      <c r="D7" s="1">
+        <v>-1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1355,16 +1307,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" ref="A9:A10" si="5">A8</f>
         <v>3</v>
@@ -1374,16 +1326,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1395,14 +1347,14 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
+      <c r="D10" s="1">
+        <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1411,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" ref="A12:A13" si="7">A11</f>
         <v>4</v>
@@ -1432,14 +1384,14 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
+      <c r="D12" s="1">
+        <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1451,14 +1403,14 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
+      <c r="D13" s="1">
+        <v>-1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1467,16 +1419,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A16" si="9">A14</f>
         <v>5</v>
@@ -1486,16 +1438,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -1507,14 +1459,14 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
+      <c r="D16" s="1">
+        <v>-1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1523,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A19" si="11">A17</f>
         <v>6</v>
@@ -1544,14 +1496,14 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="D18" s="1">
+        <v>-1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -1561,16 +1513,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -1579,16 +1531,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f>A20</f>
         <v>7</v>
@@ -1598,16 +1550,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1616,16 +1568,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" ref="A23:A24" si="13">A22</f>
         <v>8</v>
@@ -1637,14 +1589,14 @@
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
+      <c r="D23" s="1">
+        <v>-1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -1656,14 +1608,14 @@
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
+      <c r="D24" s="1">
+        <v>-1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -1672,16 +1624,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f>A25</f>
         <v>9</v>
@@ -1691,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -1708,16 +1660,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <f t="shared" ref="A28" si="15">A26</f>
         <v>9</v>
@@ -1726,16 +1678,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -1744,16 +1696,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <f t="shared" ref="A30" si="16">A29</f>
         <v>10</v>
@@ -1763,16 +1715,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1780,16 +1732,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <f>A30</f>
         <v>10</v>
@@ -1798,16 +1750,16 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -1816,16 +1768,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <f t="shared" ref="A34" si="18">A33</f>
         <v>11</v>
@@ -1835,16 +1787,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -1852,16 +1804,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <f>A34</f>
         <v>11</v>
@@ -1870,16 +1822,16 @@
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -1890,14 +1842,14 @@
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>24</v>
+      <c r="D37" s="1">
+        <v>-1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <f t="shared" ref="A38:A39" si="20">A37</f>
         <v>12</v>
@@ -1907,16 +1859,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="D38" s="1">
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <f t="shared" si="20"/>
         <v>12</v>
@@ -1928,14 +1880,14 @@
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>24</v>
+      <c r="D39" s="1">
+        <v>-1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -1944,16 +1896,16 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <f t="shared" ref="A41:A42" si="22">A40</f>
         <v>13</v>
@@ -1965,14 +1917,14 @@
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>24</v>
+      <c r="D41" s="1">
+        <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <f t="shared" si="22"/>
         <v>13</v>
@@ -1984,14 +1936,14 @@
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>24</v>
+      <c r="D42" s="1">
+        <v>-1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -2000,16 +1952,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <f t="shared" ref="A44:A45" si="24">A43</f>
         <v>14</v>
@@ -2021,14 +1973,14 @@
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>24</v>
+      <c r="D44" s="1">
+        <v>-1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <f t="shared" si="24"/>
         <v>14</v>
@@ -2040,14 +1992,14 @@
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>24</v>
+      <c r="D45" s="1">
+        <v>-1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -2056,16 +2008,16 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <f t="shared" ref="A47:A48" si="26">A46</f>
         <v>15</v>
@@ -2075,16 +2027,16 @@
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <f t="shared" si="26"/>
         <v>15</v>
@@ -2096,11 +2048,11 @@
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>24</v>
+      <c r="D48" s="1">
+        <v>-1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
